--- a/hybrid_searchTesting/timings_avarage_20_40_60_questions_RRF.xlsx
+++ b/hybrid_searchTesting/timings_avarage_20_40_60_questions_RRF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\hybrid_searchTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E13E22-B064-42F6-8F16-513FD98E5B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE0A205-77D3-403D-98C2-28F446BF7214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE0B781C-806A-42B4-ABD9-CA28EEB86C58}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>kérdések száma</t>
   </si>
   <si>
-    <t>embedding  generálásai idő átlaga</t>
-  </si>
-  <si>
     <t>sparse embedding generálási idő átlaga</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>LLM feldolgozási idő átlaga</t>
   </si>
   <si>
-    <t>teljes feldoldozási idő átlaga</t>
-  </si>
-  <si>
     <t>top_k darab számának átlag</t>
   </si>
   <si>
@@ -68,43 +62,40 @@
     <t>0.48/s</t>
   </si>
   <si>
-    <t>0.63/s</t>
-  </si>
-  <si>
-    <t>1.52/s</t>
-  </si>
-  <si>
-    <t>3.11/s</t>
-  </si>
-  <si>
-    <t>0.43/s</t>
-  </si>
-  <si>
-    <t>1.53/s</t>
-  </si>
-  <si>
-    <t>3.06/s</t>
-  </si>
-  <si>
-    <t>0.55/s</t>
-  </si>
-  <si>
-    <t>0.42/s</t>
-  </si>
-  <si>
     <t>0.61/s</t>
   </si>
   <si>
-    <t>1.63/s</t>
-  </si>
-  <si>
-    <t>3.21/s</t>
-  </si>
-  <si>
-    <t>0.64/s</t>
-  </si>
-  <si>
     <t>0.46/s</t>
+  </si>
+  <si>
+    <t>2.47/s</t>
+  </si>
+  <si>
+    <t>0.62/s</t>
+  </si>
+  <si>
+    <t>2.46/s</t>
+  </si>
+  <si>
+    <t>6.03/s</t>
+  </si>
+  <si>
+    <t>2.44/s</t>
+  </si>
+  <si>
+    <t>1.65/s</t>
+  </si>
+  <si>
+    <t>5.17/s</t>
+  </si>
+  <si>
+    <t>1.66/s</t>
+  </si>
+  <si>
+    <t>dense embedding  generálásai idő átlaga</t>
+  </si>
+  <si>
+    <t>teljes feldoldozási idő átlaga (back-end)</t>
   </si>
 </sst>
 </file>
@@ -519,7 +510,7 @@
   <dimension ref="B1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +528,7 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -552,25 +543,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -578,22 +569,22 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="I3" s="2">
         <v>31</v>
@@ -604,22 +595,22 @@
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="I4" s="2">
         <v>29</v>
@@ -630,19 +621,19 @@
         <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="H5" s="2">
         <v>0.85</v>
@@ -654,7 +645,7 @@
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H8">
         <f>AVERAGE(H3:H5)</f>
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>

--- a/hybrid_searchTesting/timings_avarage_20_40_60_questions_RRF.xlsx
+++ b/hybrid_searchTesting/timings_avarage_20_40_60_questions_RRF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\hybrid_searchTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE0A205-77D3-403D-98C2-28F446BF7214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42AA1D6-481C-489C-8E4D-FD2DBCE4DE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE0B781C-806A-42B4-ABD9-CA28EEB86C58}"/>
   </bookViews>
@@ -95,7 +95,7 @@
     <t>dense embedding  generálásai idő átlaga</t>
   </si>
   <si>
-    <t>teljes feldoldozási idő átlaga (back-end)</t>
+    <t>teljes feldoldozási idő átlaga</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
   <dimension ref="B1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/hybrid_searchTesting/timings_avarage_20_40_60_questions_RRF.xlsx
+++ b/hybrid_searchTesting/timings_avarage_20_40_60_questions_RRF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\hybrid_searchTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42AA1D6-481C-489C-8E4D-FD2DBCE4DE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E83D4E-E26B-4A7E-835D-F12EBCB582FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE0B781C-806A-42B4-ABD9-CA28EEB86C58}"/>
   </bookViews>
@@ -38,27 +38,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
-    <t>kérdések száma</t>
-  </si>
-  <si>
-    <t>sparse embedding generálási idő átlaga</t>
-  </si>
-  <si>
-    <t>kontextus összeállitási idő átlaga</t>
-  </si>
-  <si>
     <t>LLM feldolgozási idő átlaga</t>
   </si>
   <si>
-    <t>top_k darab számának átlag</t>
-  </si>
-  <si>
-    <t>szemantikus hasonlóság mérékének  (BERTScore F1) átlaga (0-1) között</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LLM modell: gemini-2.0-flash; </t>
-  </si>
-  <si>
     <t>0.48/s</t>
   </si>
   <si>
@@ -92,17 +74,35 @@
     <t>1.66/s</t>
   </si>
   <si>
-    <t>dense embedding  generálásai idő átlaga</t>
-  </si>
-  <si>
-    <t>teljes feldoldozási idő átlaga</t>
+    <t>LLM modell: gemini-2.0-flash;  RRF</t>
+  </si>
+  <si>
+    <t>Kérdések száma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Embedding  generálásai idő átlaga</t>
+  </si>
+  <si>
+    <t>Sparse embedding generálási idő átlaga</t>
+  </si>
+  <si>
+    <t>Kontextus összeállitási idő átlaga</t>
+  </si>
+  <si>
+    <t>Teljes feldoldozási idő átlaga</t>
+  </si>
+  <si>
+    <t>Szemantikus hasonlóság mérékének  (BERTScore F1) átlaga (0-1) között</t>
+  </si>
+  <si>
+    <t>Top_k darab számának átlag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,14 +112,21 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -162,16 +169,16 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,7 +517,7 @@
   <dimension ref="B1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,119 +533,119 @@
     <col min="9" max="9" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+    <row r="1" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="2:9" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>0.89</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>40</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4">
         <v>0.84</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="4">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>60</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
         <v>0.85</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <v>31</v>
       </c>
     </row>
